--- a/files/test/test_freq.xlsx
+++ b/files/test/test_freq.xlsx
@@ -439,32 +439,50 @@
           <t>Amino Acid</t>
         </is>
       </c>
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MHC A3 A202</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>MHC A3 F203</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>MHC A3 S204</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>MHC A3 K205</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MHC A3 I231</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MHC A3 A232</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>MHC A3 S233</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>MHC A3 V234</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>MHC A3 W242</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -473,33 +491,17 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -510,30 +512,16 @@
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.5144777662874871</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.001034126163391934</v>
-      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
         <v>0</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0005170630816959669</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -541,33 +529,17 @@
           <t>C</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.002068252326783868</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.9984488107549121</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
         <v>0</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -575,33 +547,21 @@
           <t>D</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
         <v>0</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.0005170630816959669</v>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
         <v>0</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
         <v>0.4146845915201655</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.0005170630816959669</v>
-      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -609,33 +569,21 @@
           <t>E</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
         <v>0</v>
       </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
         <v>0.5734229576008273</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -643,33 +591,19 @@
           <t>F</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
         <v>0</v>
       </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
         <v>0</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.6359875904860393</v>
-      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -677,33 +611,17 @@
           <t>G</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.0005170630816959669</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
         <v>0.002068252326783868</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -711,33 +629,17 @@
           <t>H</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.610651499482937</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
         <v>0.001551189245087901</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.0005170630816959669</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -745,33 +647,19 @@
           <t>I</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
         <v>0.001034126163391934</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
-      <c r="H10" t="n">
-        <v>0.0005170630816959669</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.1752843846949328</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -779,33 +667,21 @@
           <t>K</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
         <v>0.002585315408479835</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -813,33 +689,17 @@
           <t>L</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0005170630816959669</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
         <v>0</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.00672182006204757</v>
-      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -847,33 +707,17 @@
           <t>M</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
         <v>0</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.002068252326783868</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -881,33 +725,19 @@
           <t>N</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.0005170630816959669</v>
-      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="n">
         <v>0.001034126163391934</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -918,30 +748,16 @@
       <c r="B15" t="n">
         <v>0</v>
       </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="n">
         <v>0.0005170630816959669</v>
       </c>
-      <c r="H15" t="n">
-        <v>0.001551189245087901</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.001034126163391934</v>
-      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -949,33 +765,17 @@
           <t>Q</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="n">
         <v>0.003102378490175801</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -986,30 +786,18 @@
       <c r="B17" t="n">
         <v>0.4607032057911065</v>
       </c>
-      <c r="C17" t="n">
-        <v>0.0005170630816959669</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.001034126163391934</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0.002585315408479835</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1017,18 +805,12 @@
           <t>S</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
         <v>0</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
         <v>0.001034126163391934</v>
       </c>
@@ -1038,12 +820,8 @@
       <c r="H18" t="n">
         <v>0.0005170630816959669</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.004136504653567736</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1051,30 +829,18 @@
           <t>T</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>0.5372285418821097</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.6944157187176836</v>
-      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0.9974146845915202</v>
       </c>
-      <c r="I19" t="n">
-        <v>0.0005170630816959669</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
         <v>0</v>
       </c>
@@ -1085,33 +851,19 @@
           <t>V</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.0005170630816959669</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.4850051706308169</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.3019648397104447</v>
-      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="n">
         <v>0.0005170630816959669</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
         <v>0.6804550155118925</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1119,30 +871,16 @@
           <t>W</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.3877973112719752</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="n">
         <v>0</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
         <v>0</v>
       </c>
@@ -1153,33 +891,17 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="n">
         <v>0.0005170630816959669</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.1380558428128232</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.3516028955532575</v>
-      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/files/test/test_freq.xlsx
+++ b/files/test/test_freq.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,12 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>MHC A3 W242</t>
+          <t>B2M W242</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>B2M G246</t>
         </is>
       </c>
     </row>
@@ -491,17 +496,36 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -512,16 +536,33 @@
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.514646754738656</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.001148765077541643</v>
+      </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0005743825387708214</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0005743825387708214</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -529,17 +570,36 @@
           <t>C</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>0.001723147616312464</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9982768523836876</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.001148765077541643</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -547,21 +607,36 @@
           <t>D</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>0.0005743825387708214</v>
+      </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
       <c r="G5" t="n">
-        <v>0.4146845915201655</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+        <v>0.4124066628374498</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0005743825387708214</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.0005743825387708214</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -569,21 +644,36 @@
           <t>E</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
       <c r="G6" t="n">
-        <v>0.5734229576008273</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>0.5778288340034463</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -591,19 +681,36 @@
           <t>F</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.6364158529580701</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -611,17 +718,36 @@
           <t>G</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0005743825387708214</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
       <c r="G8" t="n">
-        <v>0.002068252326783868</v>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+        <v>0.001723147616312464</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.9954049396898335</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -629,17 +755,36 @@
           <t>H</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6128661688684663</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
       <c r="G9" t="n">
-        <v>0.001551189245087901</v>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+        <v>0.001148765077541643</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0005743825387708214</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -647,19 +792,36 @@
           <t>I</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
       <c r="F10" t="n">
-        <v>0.001034126163391934</v>
+        <v>0.001148765077541643</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>0.0005743825387708214</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.1751866743251005</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -667,21 +829,36 @@
           <t>K</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
-      <c r="F11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
       <c r="G11" t="n">
-        <v>0.002585315408479835</v>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+        <v>0.002297530155083286</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -689,17 +866,36 @@
           <t>L</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0005743825387708214</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.005743825387708214</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -707,17 +903,36 @@
           <t>M</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.001723147616312464</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -725,19 +940,36 @@
           <t>N</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0005743825387708214</v>
+      </c>
       <c r="G14" t="n">
-        <v>0.001034126163391934</v>
-      </c>
-      <c r="H14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -748,16 +980,33 @@
       <c r="B15" t="n">
         <v>0</v>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
       <c r="G15" t="n">
-        <v>0.0005170630816959669</v>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+        <v>0.0005743825387708214</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.001723147616312464</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.001148765077541643</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -765,17 +1014,36 @@
           <t>Q</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
       <c r="G16" t="n">
-        <v>0.003102378490175801</v>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+        <v>0.002871912693854107</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -784,20 +1052,35 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4607032057911065</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+        <v>0.466398621481907</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0005743825387708214</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.001148765077541643</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>0.002297530155083286</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.001723147616312464</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -805,23 +1088,36 @@
           <t>S</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
       <c r="F18" t="n">
-        <v>0.001034126163391934</v>
+        <v>0.001148765077541643</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0005170630816959669</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+        <v>0.0005743825387708214</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.003446295232624928</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.0005743825387708214</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -829,19 +1125,34 @@
           <t>T</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>0.5318782309017805</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.6904078116025273</v>
+      </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9974146845915202</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>0.9971280873061459</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.0005743825387708214</v>
+      </c>
       <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -851,19 +1162,36 @@
           <t>V</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.0005743825387708214</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.4847788627225733</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.305571510626077</v>
+      </c>
       <c r="G20" t="n">
-        <v>0.0005170630816959669</v>
-      </c>
-      <c r="H20" t="inlineStr"/>
+        <v>0.0005743825387708214</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
       <c r="I20" t="n">
-        <v>0.6804550155118925</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
+        <v>0.6800689259046525</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -871,17 +1199,34 @@
           <t>W</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.3854106835152211</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
       <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -891,17 +1236,36 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
       <c r="G22" t="n">
-        <v>0.0005170630816959669</v>
-      </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+        <v>0.0005743825387708214</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.1390005743825388</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.3526708788052843</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
